--- a/tools/baidu-qianxi/move_out/天津.xlsx
+++ b/tools/baidu-qianxi/move_out/天津.xlsx
@@ -8553,12 +8553,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>通化市</t>
+          <t>上海市</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>吉林省</t>
+          <t>上海市</t>
         </is>
       </c>
       <c r="D46" t="n">
@@ -8571,12 +8571,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>上海市</t>
+          <t>通化市</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>上海市</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="D47" t="n">
@@ -9327,12 +9327,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>东营市</t>
+          <t>牡丹江市</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>黑龙江省</t>
         </is>
       </c>
       <c r="D89" t="n">
@@ -9345,12 +9345,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>牡丹江市</t>
+          <t>东营市</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>黑龙江省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -9453,12 +9453,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>丹东市</t>
+          <t>辽源市</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>辽宁省</t>
+          <t>吉林省</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -9471,12 +9471,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>辽源市</t>
+          <t>丹东市</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>吉林省</t>
+          <t>辽宁省</t>
         </is>
       </c>
       <c r="D97" t="n">
@@ -11379,12 +11379,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>连云港市</t>
+          <t>兰州市</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>甘肃省</t>
         </is>
       </c>
       <c r="D101" t="n">
